--- a/doc/HasPlayerErrors.xlsx
+++ b/doc/HasPlayerErrors.xlsx
@@ -4,18 +4,18 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="75" windowWidth="22995" windowHeight="10545" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="75" windowWidth="22995" windowHeight="10545"/>
   </bookViews>
   <sheets>
-    <sheet name="DRM errors" sheetId="1" r:id="rId1"/>
-    <sheet name="Stream errors" sheetId="2" r:id="rId2"/>
+    <sheet name="Stream errors" sheetId="2" r:id="rId1"/>
+    <sheet name="DRM errors" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="83">
   <si>
     <t>MEDIA SOURCE BUFFER ERROR</t>
   </si>
@@ -41,45 +41,24 @@
     <t>MEDIA_KEYERR</t>
   </si>
   <si>
-    <t>Pour la version EME du 3 Février 2014, une erreur lors de la récupération de la licence est intervenue</t>
-  </si>
-  <si>
     <t>MEDIA_KEYERR_UNKNOWN</t>
   </si>
   <si>
-    <t>Pour la version EME 01b, une erreur non spécifiée est intervenue lors de la récupération de la licence</t>
-  </si>
-  <si>
     <t>MEDIA_KEYERR_CLIENT</t>
   </si>
   <si>
-    <t>Pour la version EME 01b, le key system ne peut être installé ou mis à jour</t>
-  </si>
-  <si>
     <t>MEDIA_KEYERR_SERVICE</t>
   </si>
   <si>
-    <t>Pour la version EME 01b, le challenge nécessaire à la récupération de la licence comporte une erreur</t>
-  </si>
-  <si>
     <t>MEDIA_KEYERR_OUTPUT</t>
   </si>
   <si>
-    <t>Pour la version EME 01b, la licence récupérée n'est pas conforme aux sorties vidéo</t>
-  </si>
-  <si>
     <t>MEDIA_KEYERR_HARDWARECHANGE</t>
   </si>
   <si>
-    <t>Pour la version EME 01b, un changement dans la configuration matériel empêche la lecture de ce contenu protégé.</t>
-  </si>
-  <si>
     <t>MEDIA_KEYERR_DOMAIN</t>
   </si>
   <si>
-    <t>Pour la version EME 01b, impossible de joindre le domaine pour récupérer la licence.</t>
-  </si>
-  <si>
     <t>MEDIA KEY SYSTEM ERROR</t>
   </si>
   <si>
@@ -218,22 +197,10 @@
     <t>Cette erreur intervient si le téléchargement du manifest a échoué</t>
   </si>
   <si>
-    <t>DOWNLOAD_ERR_SIDX</t>
-  </si>
-  <si>
-    <t>Cette erreur intervient si la box SIDX n'a pu être identifiée</t>
-  </si>
-  <si>
     <t>DOWNLOAD_ERR_CONTENT</t>
   </si>
   <si>
     <t>Cette erreur intervient si le téléchargement d'un segment média a échoué</t>
-  </si>
-  <si>
-    <t>DOWNLOAD_ERR_INIT</t>
-  </si>
-  <si>
-    <t>Cette erreur intervient si le téléchargement d'un segment d'init a échoué</t>
   </si>
   <si>
     <t>SUBTITLES ERROR</t>
@@ -283,13 +250,35 @@
   </si>
   <si>
     <t>event.code
-event.data.url : manifest url
-event.data.request : xmlHttpRequest object</t>
+event.message
+event.data : contenu du sous-titre en erreur</t>
+  </si>
+  <si>
+    <t>une erreur lors de la récupération de la licence est intervenue</t>
+  </si>
+  <si>
+    <t>une erreur non spécifiée est intervenue lors de la récupération de la licence</t>
+  </si>
+  <si>
+    <t>le key system ne peut être installé ou mis à jour</t>
+  </si>
+  <si>
+    <t>le challenge nécessaire à la récupération de la licence comporte une erreur</t>
+  </si>
+  <si>
+    <t>la licence récupérée n'est pas conforme aux sorties vidéo</t>
+  </si>
+  <si>
+    <t>un changement dans la configuration matériel empêche la lecture de ce contenu protégé.</t>
+  </si>
+  <si>
+    <t>impossible de joindre le domaine pour récupérer la licence.</t>
   </si>
   <si>
     <t>event.code
 event.message
-event.data : contenu du sous-titre en erreur</t>
+event.data.url : url du chunk en error
+event.data.request : xmlHttpRequest object</t>
   </si>
 </sst>
 </file>
@@ -389,14 +378,14 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -699,10 +688,268 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="38.5703125" customWidth="1"/>
+    <col min="2" max="2" width="76.85546875" customWidth="1"/>
+    <col min="3" max="3" width="55" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+    </row>
+    <row r="4" spans="1:3" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="37.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+    </row>
+    <row r="12" spans="1:3" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+    </row>
+    <row r="16" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+    </row>
+    <row r="18" spans="1:3" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+    </row>
+    <row r="21" spans="1:3" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" s="2" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+    </row>
+    <row r="23" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+    </row>
+    <row r="24" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+    </row>
+    <row r="25" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A20:C20"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -712,23 +959,23 @@
     <col min="3" max="3" width="56.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="64.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
     </row>
     <row r="3" spans="1:3" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
@@ -738,15 +985,15 @@
         <v>2</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
     </row>
     <row r="5" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
@@ -756,193 +1003,193 @@
         <v>5</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
     </row>
     <row r="7" spans="1:3" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>8</v>
+        <v>75</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>10</v>
+        <v>76</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>12</v>
+        <v>77</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>14</v>
+        <v>78</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>16</v>
+        <v>79</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>18</v>
+        <v>80</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>20</v>
+        <v>81</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
+      <c r="A14" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
     </row>
     <row r="15" spans="1:3" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
+      <c r="A16" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
     </row>
     <row r="17" spans="1:3" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
@@ -956,284 +1203,4 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C27"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="38.5703125" customWidth="1"/>
-    <col min="2" max="2" width="76.85546875" customWidth="1"/>
-    <col min="3" max="3" width="55" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-    </row>
-    <row r="4" spans="1:3" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="37.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-    </row>
-    <row r="12" spans="1:3" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-    </row>
-    <row r="16" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-    </row>
-    <row r="18" spans="1:3" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-    </row>
-    <row r="23" spans="1:3" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" s="2" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-    </row>
-    <row r="25" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-    </row>
-    <row r="26" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-    </row>
-    <row r="27" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-    </row>
-  </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A22:C22"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>